--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,6 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>Dll4</t>
-  </si>
-  <si>
-    <t>Notch4</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -97,7 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Dll4</t>
+  </si>
+  <si>
+    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H2">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I2">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J2">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>2169.473446826098</v>
+        <v>2194.777579509307</v>
       </c>
       <c r="R2">
-        <v>2169.473446826098</v>
+        <v>8779.110318037228</v>
       </c>
       <c r="S2">
-        <v>0.3334938256333054</v>
+        <v>0.3163709144761159</v>
       </c>
       <c r="T2">
-        <v>0.3334938256333054</v>
+        <v>0.214158867146915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H3">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I3">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J3">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>64.42714352408919</v>
+        <v>68.48342268654916</v>
       </c>
       <c r="R3">
-        <v>64.42714352408919</v>
+        <v>410.900536119295</v>
       </c>
       <c r="S3">
-        <v>0.009903810807137682</v>
+        <v>0.009871689625443462</v>
       </c>
       <c r="T3">
-        <v>0.009903810807137682</v>
+        <v>0.01002356618580938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H4">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I4">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J4">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>20.65362457736523</v>
+        <v>39.3422895365405</v>
       </c>
       <c r="R4">
-        <v>20.65362457736523</v>
+        <v>236.053737219243</v>
       </c>
       <c r="S4">
-        <v>0.003174897707817723</v>
+        <v>0.005671078579653707</v>
       </c>
       <c r="T4">
-        <v>0.003174897707817723</v>
+        <v>0.005758328477181151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H5">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I5">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J5">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>48.3098700136307</v>
+        <v>53.63371298870265</v>
       </c>
       <c r="R5">
-        <v>48.3098700136307</v>
+        <v>321.8022779322159</v>
       </c>
       <c r="S5">
-        <v>0.00742624593551195</v>
+        <v>0.007731146419300955</v>
       </c>
       <c r="T5">
-        <v>0.00742624593551195</v>
+        <v>0.00785009058898214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H6">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I6">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J6">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>1303.552626148735</v>
+        <v>1366.859647254003</v>
       </c>
       <c r="R6">
-        <v>1303.552626148735</v>
+        <v>8201.15788352402</v>
       </c>
       <c r="S6">
-        <v>0.2003835321629225</v>
+        <v>0.1970289110839792</v>
       </c>
       <c r="T6">
-        <v>0.2003835321629225</v>
+        <v>0.2000602131653322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H7">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I7">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J7">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N7">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O7">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P7">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q7">
-        <v>36.64998998981024</v>
+        <v>44.27408427725249</v>
       </c>
       <c r="R7">
-        <v>36.64998998981024</v>
+        <v>177.09633710901</v>
       </c>
       <c r="S7">
-        <v>0.005633876454678687</v>
+        <v>0.006381982694355111</v>
       </c>
       <c r="T7">
-        <v>0.005633876454678687</v>
+        <v>0.004320113264007045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H8">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J8">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N8">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O8">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P8">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q8">
-        <v>1704.474290036486</v>
+        <v>0.9280844690606668</v>
       </c>
       <c r="R8">
-        <v>1704.474290036486</v>
+        <v>5.568506814364</v>
       </c>
       <c r="S8">
-        <v>0.2620136478321437</v>
+        <v>0.0001337807233539578</v>
       </c>
       <c r="T8">
-        <v>0.2620136478321437</v>
+        <v>0.0001358389481236968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H9">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I9">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J9">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N9">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P9">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q9">
-        <v>50.61800128411681</v>
+        <v>0.02895892575944445</v>
       </c>
       <c r="R9">
-        <v>50.61800128411681</v>
+        <v>0.260630331835</v>
       </c>
       <c r="S9">
-        <v>0.007781054393105382</v>
+        <v>4.174346371266337E-06</v>
       </c>
       <c r="T9">
-        <v>0.007781054393105382</v>
+        <v>6.35785342567459E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H10">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I10">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J10">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N10">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O10">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P10">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q10">
-        <v>16.22678172885082</v>
+        <v>0.01663629528433333</v>
       </c>
       <c r="R10">
-        <v>16.22678172885082</v>
+        <v>0.149726657559</v>
       </c>
       <c r="S10">
-        <v>0.002494398594455285</v>
+        <v>2.398074411611198E-06</v>
       </c>
       <c r="T10">
-        <v>0.002494398594455285</v>
+        <v>3.652453403922876E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H11">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I11">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J11">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N11">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O11">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P11">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q11">
-        <v>37.95526122419449</v>
+        <v>0.02267957195644444</v>
       </c>
       <c r="R11">
-        <v>37.95526122419449</v>
+        <v>0.204116147608</v>
       </c>
       <c r="S11">
-        <v>0.005834524173174963</v>
+        <v>3.269195469634501E-06</v>
       </c>
       <c r="T11">
-        <v>0.005834524173174963</v>
+        <v>4.97923836864313E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H12">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I12">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J12">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N12">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O12">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P12">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q12">
-        <v>1024.152630321714</v>
+        <v>0.5779907822303334</v>
       </c>
       <c r="R12">
-        <v>1024.152630321714</v>
+        <v>5.201917040073</v>
       </c>
       <c r="S12">
-        <v>0.157433859915677</v>
+        <v>8.331571911439818E-05</v>
       </c>
       <c r="T12">
-        <v>0.157433859915677</v>
+        <v>0.0001268963049712918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.049831</v>
+      </c>
+      <c r="I13">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J13">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.127115</v>
+      </c>
+      <c r="N13">
+        <v>2.25423</v>
+      </c>
+      <c r="O13">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P13">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q13">
+        <v>0.018721755855</v>
+      </c>
+      <c r="R13">
+        <v>0.11233053513</v>
+      </c>
+      <c r="S13">
+        <v>2.69868759173727E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.740207068593476E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.018293</v>
+      </c>
+      <c r="H14">
+        <v>0.054879</v>
+      </c>
+      <c r="I14">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J14">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>55.873922</v>
+      </c>
+      <c r="N14">
+        <v>111.747844</v>
+      </c>
+      <c r="O14">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P14">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q14">
+        <v>1.022101655146</v>
+      </c>
+      <c r="R14">
+        <v>6.132609930876</v>
+      </c>
+      <c r="S14">
+        <v>0.0001473330319869528</v>
+      </c>
+      <c r="T14">
+        <v>0.0001495997598699676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.018293</v>
+      </c>
+      <c r="H15">
+        <v>0.054879</v>
+      </c>
+      <c r="I15">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J15">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.230285</v>
+      </c>
+      <c r="O15">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P15">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q15">
+        <v>0.03189253450166667</v>
+      </c>
+      <c r="R15">
+        <v>0.287032810515</v>
+      </c>
+      <c r="S15">
+        <v>4.597217685953026E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.001919250016973E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.018293</v>
+      </c>
+      <c r="H16">
+        <v>0.054879</v>
+      </c>
+      <c r="I16">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J16">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.001563</v>
+      </c>
+      <c r="N16">
+        <v>3.004689</v>
+      </c>
+      <c r="O16">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P16">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q16">
+        <v>0.018321591959</v>
+      </c>
+      <c r="R16">
+        <v>0.164894327631</v>
+      </c>
+      <c r="S16">
+        <v>2.64100510996791E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.022455707368575E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>30.5057240376814</v>
-      </c>
-      <c r="H13">
-        <v>30.5057240376814</v>
-      </c>
-      <c r="I13">
-        <v>0.439983811298626</v>
-      </c>
-      <c r="J13">
-        <v>0.439983811298626</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="N13">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="O13">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="P13">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="Q13">
-        <v>28.79452881025908</v>
-      </c>
-      <c r="R13">
-        <v>28.79452881025908</v>
-      </c>
-      <c r="S13">
-        <v>0.004426326390069655</v>
-      </c>
-      <c r="T13">
-        <v>0.004426326390069655</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.018293</v>
+      </c>
+      <c r="H17">
+        <v>0.054879</v>
+      </c>
+      <c r="I17">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J17">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.096168</v>
+      </c>
+      <c r="O17">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P17">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q17">
+        <v>0.02497706707466666</v>
+      </c>
+      <c r="R17">
+        <v>0.224793603672</v>
+      </c>
+      <c r="S17">
+        <v>3.60037282370556E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.48364717611058E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.018293</v>
+      </c>
+      <c r="H18">
+        <v>0.054879</v>
+      </c>
+      <c r="I18">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J18">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.797061</v>
+      </c>
+      <c r="N18">
+        <v>104.391183</v>
+      </c>
+      <c r="O18">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P18">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q18">
+        <v>0.6365426368729999</v>
+      </c>
+      <c r="R18">
+        <v>5.728883731857</v>
+      </c>
+      <c r="S18">
+        <v>9.175580159497214E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001397512054849295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.018293</v>
+      </c>
+      <c r="H19">
+        <v>0.054879</v>
+      </c>
+      <c r="I19">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J19">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.127115</v>
+      </c>
+      <c r="N19">
+        <v>2.25423</v>
+      </c>
+      <c r="O19">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P19">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q19">
+        <v>0.020618314695</v>
+      </c>
+      <c r="R19">
+        <v>0.12370988817</v>
+      </c>
+      <c r="S19">
+        <v>2.972071127349434E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.017796626945905E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J20">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>55.873922</v>
+      </c>
+      <c r="N20">
+        <v>111.747844</v>
+      </c>
+      <c r="O20">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P20">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q20">
+        <v>13.29596335016733</v>
+      </c>
+      <c r="R20">
+        <v>79.775780101004</v>
+      </c>
+      <c r="S20">
+        <v>0.001916575111394117</v>
+      </c>
+      <c r="T20">
+        <v>0.001946061738977224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J21">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.230285</v>
+      </c>
+      <c r="O21">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P21">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q21">
+        <v>0.4148725987705556</v>
+      </c>
+      <c r="R21">
+        <v>3.733853388935001</v>
+      </c>
+      <c r="S21">
+        <v>5.980269922999129E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.108415122932028E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J22">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.001563</v>
+      </c>
+      <c r="N22">
+        <v>3.004689</v>
+      </c>
+      <c r="O22">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P22">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q22">
+        <v>0.2383356038776667</v>
+      </c>
+      <c r="R22">
+        <v>2.145020434899</v>
+      </c>
+      <c r="S22">
+        <v>3.435539603418615E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.232593391623499E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J23">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.096168</v>
+      </c>
+      <c r="O23">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P23">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q23">
+        <v>0.3249130521875555</v>
+      </c>
+      <c r="R23">
+        <v>2.924217469688</v>
+      </c>
+      <c r="S23">
+        <v>4.683528773279372E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.13337773319623E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J24">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>34.797061</v>
+      </c>
+      <c r="N24">
+        <v>104.391183</v>
+      </c>
+      <c r="O24">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P24">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q24">
+        <v>8.280436224783667</v>
+      </c>
+      <c r="R24">
+        <v>74.52392602305301</v>
+      </c>
+      <c r="S24">
+        <v>0.00119360121278515</v>
+      </c>
+      <c r="T24">
+        <v>0.001817947262793452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J25">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.127115</v>
+      </c>
+      <c r="N25">
+        <v>2.25423</v>
+      </c>
+      <c r="O25">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P25">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q25">
+        <v>0.268212418155</v>
+      </c>
+      <c r="R25">
+        <v>1.60927450893</v>
+      </c>
+      <c r="S25">
+        <v>3.86620534115894E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.925687151382203E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H26">
+        <v>98.201284</v>
+      </c>
+      <c r="I26">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J26">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>55.873922</v>
+      </c>
+      <c r="N26">
+        <v>111.747844</v>
+      </c>
+      <c r="O26">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P26">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q26">
+        <v>1828.963627505283</v>
+      </c>
+      <c r="R26">
+        <v>10973.7817650317</v>
+      </c>
+      <c r="S26">
+        <v>0.2636398789469896</v>
+      </c>
+      <c r="T26">
+        <v>0.2676959949219646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H27">
+        <v>98.201284</v>
+      </c>
+      <c r="I27">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J27">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.230285</v>
+      </c>
+      <c r="O27">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P27">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q27">
+        <v>57.06896696510444</v>
+      </c>
+      <c r="R27">
+        <v>513.62070268594</v>
+      </c>
+      <c r="S27">
+        <v>0.008226328460578653</v>
+      </c>
+      <c r="T27">
+        <v>0.01252933655525764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H28">
+        <v>98.201284</v>
+      </c>
+      <c r="I28">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J28">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.001563</v>
+      </c>
+      <c r="N28">
+        <v>3.004689</v>
+      </c>
+      <c r="O28">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P28">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q28">
+        <v>32.78492420229733</v>
+      </c>
+      <c r="R28">
+        <v>295.064317820676</v>
+      </c>
+      <c r="S28">
+        <v>0.004725853110468668</v>
+      </c>
+      <c r="T28">
+        <v>0.007197840982829906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H29">
+        <v>98.201284</v>
+      </c>
+      <c r="I29">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J29">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N29">
+        <v>4.096168</v>
+      </c>
+      <c r="O29">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P29">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q29">
+        <v>44.69432856441244</v>
+      </c>
+      <c r="R29">
+        <v>402.2489570797119</v>
+      </c>
+      <c r="S29">
+        <v>0.006442559707111857</v>
+      </c>
+      <c r="T29">
+        <v>0.009812518334828133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H30">
+        <v>98.201284</v>
+      </c>
+      <c r="I30">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J30">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>34.797061</v>
+      </c>
+      <c r="N30">
+        <v>104.391183</v>
+      </c>
+      <c r="O30">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P30">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q30">
+        <v>1139.038689875441</v>
+      </c>
+      <c r="R30">
+        <v>10251.34820887897</v>
+      </c>
+      <c r="S30">
+        <v>0.1641891712872959</v>
+      </c>
+      <c r="T30">
+        <v>0.2500728478865855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H31">
+        <v>98.201284</v>
+      </c>
+      <c r="I31">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J31">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.127115</v>
+      </c>
+      <c r="N31">
+        <v>2.25423</v>
+      </c>
+      <c r="O31">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P31">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q31">
+        <v>36.89471340522</v>
+      </c>
+      <c r="R31">
+        <v>221.36828043132</v>
+      </c>
+      <c r="S31">
+        <v>0.00531826747654006</v>
+      </c>
+      <c r="T31">
+        <v>0.005400089353249091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.045559</v>
+      </c>
+      <c r="H32">
+        <v>0.091118</v>
+      </c>
+      <c r="I32">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J32">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>55.873922</v>
+      </c>
+      <c r="N32">
+        <v>111.747844</v>
+      </c>
+      <c r="O32">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P32">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q32">
+        <v>2.545560012398</v>
+      </c>
+      <c r="R32">
+        <v>10.182240049592</v>
+      </c>
+      <c r="S32">
+        <v>0.0003669351994912581</v>
+      </c>
+      <c r="T32">
+        <v>0.0002483870136086975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.045559</v>
+      </c>
+      <c r="H33">
+        <v>0.091118</v>
+      </c>
+      <c r="I33">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J33">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N33">
+        <v>5.230285</v>
+      </c>
+      <c r="O33">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P33">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q33">
+        <v>0.07942885143833334</v>
+      </c>
+      <c r="R33">
+        <v>0.4765731086300001</v>
+      </c>
+      <c r="S33">
+        <v>1.144944189331077E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.162559227068727E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.045559</v>
+      </c>
+      <c r="H34">
+        <v>0.091118</v>
+      </c>
+      <c r="I34">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J34">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.001563</v>
+      </c>
+      <c r="N34">
+        <v>3.004689</v>
+      </c>
+      <c r="O34">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P34">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q34">
+        <v>0.045630208717</v>
+      </c>
+      <c r="R34">
+        <v>0.273781252302</v>
+      </c>
+      <c r="S34">
+        <v>6.57746415596283E-06</v>
+      </c>
+      <c r="T34">
+        <v>6.678658852092966E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.045559</v>
+      </c>
+      <c r="H35">
+        <v>0.091118</v>
+      </c>
+      <c r="I35">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J35">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N35">
+        <v>4.096168</v>
+      </c>
+      <c r="O35">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P35">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q35">
+        <v>0.06220577263733332</v>
+      </c>
+      <c r="R35">
+        <v>0.373234635824</v>
+      </c>
+      <c r="S35">
+        <v>8.966784315049561E-06</v>
+      </c>
+      <c r="T35">
+        <v>9.104738850796184E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.045559</v>
+      </c>
+      <c r="H36">
+        <v>0.091118</v>
+      </c>
+      <c r="I36">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J36">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>34.797061</v>
+      </c>
+      <c r="N36">
+        <v>104.391183</v>
+      </c>
+      <c r="O36">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P36">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q36">
+        <v>1.585319302099</v>
+      </c>
+      <c r="R36">
+        <v>9.511915812594001</v>
+      </c>
+      <c r="S36">
+        <v>0.0002285192458790431</v>
+      </c>
+      <c r="T36">
+        <v>0.0002320350287245724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.045559</v>
+      </c>
+      <c r="H37">
+        <v>0.091118</v>
+      </c>
+      <c r="I37">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J37">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.127115</v>
+      </c>
+      <c r="N37">
+        <v>2.25423</v>
+      </c>
+      <c r="O37">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P37">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q37">
+        <v>0.051350232285</v>
+      </c>
+      <c r="R37">
+        <v>0.20540092914</v>
+      </c>
+      <c r="S37">
+        <v>7.401989203023718E-06</v>
+      </c>
+      <c r="T37">
+        <v>5.010579512273492E-06</v>
       </c>
     </row>
   </sheetData>
